--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37DC74F-0A71-455D-AF32-B3192389A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA8A74-06F6-42D5-A1C8-24113D573EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5004" yWindow="5052" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11160" yWindow="11880" windowWidth="21600" windowHeight="11436" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="skill_pattern_group" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -121,8 +121,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hp_condition</t>
+  </si>
+  <si>
+    <t>hp_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
     <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -649,111 +661,195 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
-        <v>200000101</v>
+        <v>20000010101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>200000102</v>
+        <v>200000101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1">
-        <v>200000102</v>
+        <v>20000010102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>200000103</v>
+        <v>200000101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20000010103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>200000102</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1">
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20000010201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>200000102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20000010202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>200000102</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20000010203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>200000103</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20000010301</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="1">
+        <v>200000103</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20000010302</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>200000103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20000010303</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -809,6 +905,42 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA8A74-06F6-42D5-A1C8-24113D573EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213833F-9391-4850-9605-015F661EDBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="11880" windowWidth="21600" windowHeight="11436" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="skill_pattern_group" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="4" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>200000101</v>
+        <v>2000101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -670,12 +670,12 @@
         <v>24</v>
       </c>
       <c r="G4" s="1">
-        <v>20000010101</v>
+        <v>200010101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>200000101</v>
+        <v>2000101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -693,12 +693,12 @@
         <v>25</v>
       </c>
       <c r="G5" s="1">
-        <v>20000010102</v>
+        <v>200010102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>200000101</v>
+        <v>2000101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -714,12 +714,12 @@
         <v>25</v>
       </c>
       <c r="G6" s="1">
-        <v>20000010103</v>
+        <v>200010103</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>200000102</v>
+        <v>2000102</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -737,12 +737,12 @@
         <v>24</v>
       </c>
       <c r="G7" s="1">
-        <v>20000010201</v>
+        <v>200010201</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>200000102</v>
+        <v>2000102</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -760,12 +760,12 @@
         <v>25</v>
       </c>
       <c r="G8" s="1">
-        <v>20000010202</v>
+        <v>200010202</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>200000102</v>
+        <v>2000102</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -781,12 +781,12 @@
         <v>25</v>
       </c>
       <c r="G9" s="1">
-        <v>20000010203</v>
+        <v>200010203</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>200000103</v>
+        <v>2000103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -804,12 +804,12 @@
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>20000010301</v>
+        <v>200010301</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>200000103</v>
+        <v>2000103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -827,12 +827,12 @@
         <v>25</v>
       </c>
       <c r="G11" s="1">
-        <v>20000010302</v>
+        <v>200010302</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>200000103</v>
+        <v>2000103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -848,7 +848,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="1">
-        <v>20000010303</v>
+        <v>200010303</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213833F-9391-4850-9605-015F661EDBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8BF9E-EB10-48CB-8BC5-D30A292F4136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="skill_pattern_group" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>int</t>
   </si>
@@ -124,17 +113,55 @@
     <t>hp_condition</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>몬스터_전사_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_탱커_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_탱커_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_탱커_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_주술사_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_주술사_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_주술사_LV3</t>
+  </si>
+  <si>
+    <t>sequential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hp_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>sequential</t>
-  </si>
-  <si>
-    <t>random</t>
   </si>
 </sst>
 </file>
@@ -271,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -417,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,23 +594,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="5" width="19.09765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.125" style="3" customWidth="1"/>
     <col min="6" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="3"/>
+    <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -606,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -650,296 +678,284 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2000101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
         <v>200010101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2000101</v>
+        <v>2000102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1">
         <v>200010102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2000101</v>
+        <v>2000103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
         <v>200010103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2000102</v>
+        <v>2000201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
-        <v>200010201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200020101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2000102</v>
+        <v>2000202</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
-        <v>200010202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200020201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2000102</v>
+        <v>2000203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1">
-        <v>200010203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200020301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2000103</v>
+        <v>2000301</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>0.5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1">
-        <v>200010301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200030101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2000103</v>
+        <v>2000301</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1">
-        <v>200010302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200030102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2000103</v>
+        <v>2000302</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1">
-        <v>200010303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>200030201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2000303</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
+        <v>200030301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2000401</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1">
+        <v>200040101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2000401</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1">
+        <v>200040102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2000401</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>200040103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8BF9E-EB10-48CB-8BC5-D30A292F4136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10052B0B-8A3D-4A64-A817-065972E954AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="1">
-        <v>200010102</v>
+        <v>200010201</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="1">
-        <v>200010103</v>
+        <v>200010301</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="1">
-        <v>200040102</v>
+        <v>200040201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -954,11 +954,12 @@
         <v>24</v>
       </c>
       <c r="G16" s="1">
-        <v>200040103</v>
+        <v>200040301</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10052B0B-8A3D-4A64-A817-065972E954AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65C763-650F-4761-84CE-00C8D7F2C663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>int</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>hp_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_엘리트_LV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,11 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -957,6 +961,48 @@
         <v>200040301</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2010101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1">
+        <v>201010101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2010102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>201010201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65C763-650F-4761-84CE-00C8D7F2C663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23897A1-4904-4BAD-9E51-8BF4922A714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>몬스터_전사_엘리트_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_보스_LV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -822,7 +826,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -1001,6 +1005,27 @@
       </c>
       <c r="G18" s="1">
         <v>201010201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2020101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1">
+        <v>202010101</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23897A1-4904-4BAD-9E51-8BF4922A714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186050E-3C89-42B2-B4BC-965C11D2238F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -602,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -976,9 +976,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
@@ -988,7 +990,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2010102</v>
+        <v>2010101</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
@@ -1004,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="G18" s="1">
-        <v>201010201</v>
+        <v>201010102</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1018,14 +1020,60 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.7</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1">
         <v>202010101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2020101</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1">
+        <v>202010102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2020101</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1">
+        <v>202010103</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186050E-3C89-42B2-B4BC-965C11D2238F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4027004-EAA0-434E-9D43-0B048C61F8F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>int</t>
   </si>
@@ -169,6 +169,102 @@
   </si>
   <si>
     <t>몬스터_전사_보스_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1076,6 +1172,578 @@
         <v>202010103</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2001101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200110101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2001102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3">
+        <v>200110201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>2001103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200110301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2001104</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3">
+        <v>200110401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>2001201</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200120101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>2001202</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3">
+        <v>200120201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>2001203</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3">
+        <v>200120301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>2001204</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="3">
+        <v>200120401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>2001301</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="3">
+        <v>200130101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>2001302</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3">
+        <v>200130201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>2001303</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200130301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2001304</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="3">
+        <v>200130401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>2011101</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="3">
+        <v>201110101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2011102</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="3">
+        <v>201110201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2011103</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="3">
+        <v>201110301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2011104</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="3">
+        <v>201110401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2011201</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="3">
+        <v>201120101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>2011202</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="3">
+        <v>201120201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>2011203</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="3">
+        <v>201120301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>2011204</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="3">
+        <v>201120401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>2021101</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="3">
+        <v>202110101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>2021101</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="3">
+        <v>202110102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>2021102</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="3">
+        <v>202110201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>2021102</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="3">
+        <v>202110202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>2021103</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="3">
+        <v>202110301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>2021103</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="3">
+        <v>202110302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>2021104</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="3">
+        <v>202110401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>2021104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="3">
+        <v>202110402</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/skill_pattern_group.xlsx
+++ b/GameData/Excel/skill_pattern_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4027004-EAA0-434E-9D43-0B048C61F8F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BA893C-F300-4C41-9877-BEE71C1D6013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -701,8 +701,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>2001101</v>
+        <v>2100101</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
@@ -1189,12 +1189,12 @@
         <v>23</v>
       </c>
       <c r="G22" s="3">
-        <v>200110101</v>
+        <v>210010101</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>2001102</v>
+        <v>2100102</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -1209,12 +1209,12 @@
         <v>23</v>
       </c>
       <c r="G23" s="3">
-        <v>200110201</v>
+        <v>210010201</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>2001103</v>
+        <v>2100103</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>51</v>
@@ -1229,12 +1229,12 @@
         <v>23</v>
       </c>
       <c r="G24" s="3">
-        <v>200110301</v>
+        <v>210010301</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>2001104</v>
+        <v>2100104</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
@@ -1249,12 +1249,12 @@
         <v>23</v>
       </c>
       <c r="G25" s="3">
-        <v>200110401</v>
+        <v>210010401</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>2001201</v>
+        <v>2100201</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>40</v>
@@ -1269,12 +1269,12 @@
         <v>23</v>
       </c>
       <c r="G26" s="3">
-        <v>200120101</v>
+        <v>210020101</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>2001202</v>
+        <v>2100202</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -1289,12 +1289,12 @@
         <v>23</v>
       </c>
       <c r="G27" s="3">
-        <v>200120201</v>
+        <v>210020201</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>2001203</v>
+        <v>2100203</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
@@ -1309,12 +1309,12 @@
         <v>23</v>
       </c>
       <c r="G28" s="3">
-        <v>200120301</v>
+        <v>210020301</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>2001204</v>
+        <v>2100204</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -1329,12 +1329,12 @@
         <v>23</v>
       </c>
       <c r="G29" s="3">
-        <v>200120401</v>
+        <v>210020401</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>2001301</v>
+        <v>2100301</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -1349,12 +1349,12 @@
         <v>23</v>
       </c>
       <c r="G30" s="3">
-        <v>200130101</v>
+        <v>210030101</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>2001302</v>
+        <v>2100302</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>47</v>
@@ -1369,12 +1369,12 @@
         <v>23</v>
       </c>
       <c r="G31" s="3">
-        <v>200130201</v>
+        <v>210030201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>2001303</v>
+        <v>2100303</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>53</v>
@@ -1389,12 +1389,12 @@
         <v>23</v>
       </c>
       <c r="G32" s="3">
-        <v>200130301</v>
+        <v>210030301</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>2001304</v>
+        <v>2100304</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>59</v>
@@ -1409,12 +1409,12 @@
         <v>23</v>
       </c>
       <c r="G33" s="3">
-        <v>200130401</v>
+        <v>210030401</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>2011101</v>
+        <v>2110101</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>42</v>
@@ -1429,12 +1429,12 @@
         <v>23</v>
       </c>
       <c r="G34" s="3">
-        <v>201110101</v>
+        <v>211010101</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>2011102</v>
+        <v>2110102</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1449,12 +1449,12 @@
         <v>23</v>
       </c>
       <c r="G35" s="3">
-        <v>201110201</v>
+        <v>211010201</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>2011103</v>
+        <v>2110103</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>54</v>
@@ -1469,12 +1469,12 @@
         <v>23</v>
       </c>
       <c r="G36" s="3">
-        <v>201110301</v>
+        <v>211010301</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>2011104</v>
+        <v>2110104</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>60</v>
@@ -1489,12 +1489,12 @@
         <v>23</v>
       </c>
       <c r="G37" s="3">
-        <v>201110401</v>
+        <v>211010401</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>2011201</v>
+        <v>2110201</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>43</v>
@@ -1509,12 +1509,12 @@
         <v>23</v>
       </c>
       <c r="G38" s="3">
-        <v>201120101</v>
+        <v>211020101</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>2011202</v>
+        <v>2110202</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>49</v>
@@ -1529,12 +1529,12 @@
         <v>23</v>
       </c>
       <c r="G39" s="3">
-        <v>201120201</v>
+        <v>211020201</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>2011203</v>
+        <v>2110203</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
@@ -1549,12 +1549,12 @@
         <v>23</v>
       </c>
       <c r="G40" s="3">
-        <v>201120301</v>
+        <v>211020301</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>2011204</v>
+        <v>2110204</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>61</v>
@@ -1569,12 +1569,12 @@
         <v>23</v>
       </c>
       <c r="G41" s="3">
-        <v>201120401</v>
+        <v>211020401</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>2021101</v>
+        <v>2120101</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -1592,12 +1592,12 @@
         <v>23</v>
       </c>
       <c r="G42" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>2021101</v>
+        <v>2120101</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
@@ -1612,12 +1612,12 @@
         <v>23</v>
       </c>
       <c r="G43" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>2021102</v>
+        <v>2120102</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>50</v>
@@ -1635,12 +1635,12 @@
         <v>23</v>
       </c>
       <c r="G44" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>2021102</v>
+        <v>2120102</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>50</v>
@@ -1655,12 +1655,12 @@
         <v>23</v>
       </c>
       <c r="G45" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>2021103</v>
+        <v>2120103</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>56</v>
@@ -1678,12 +1678,12 @@
         <v>23</v>
       </c>
       <c r="G46" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>2021103</v>
+        <v>2120103</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>56</v>
@@ -1698,12 +1698,12 @@
         <v>23</v>
       </c>
       <c r="G47" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>2021104</v>
+        <v>2120104</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>62</v>
@@ -1721,12 +1721,12 @@
         <v>23</v>
       </c>
       <c r="G48" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>2021104</v>
+        <v>2120104</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>62</v>
@@ -1741,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="G49" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
     </row>
   </sheetData>
